--- a/output.XLSX
+++ b/output.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D767E8E9-137B-40A4-A43A-4454F2C9A188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC496353-4245-4ADB-BE92-ABF3AFA931D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,8 +137,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance Measurements - TCP</a:t>
+              <a:t>Performance Measurements - TCP (warm-up:</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 500)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -283,67 +288,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.6432000000000001E-2</c:v>
+                  <c:v>0.295072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7840000000000001E-2</c:v>
+                  <c:v>4.7572999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0794000000000001E-2</c:v>
+                  <c:v>9.5658999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.124516</c:v>
+                  <c:v>6.1349689999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38561699999999999</c:v>
+                  <c:v>13.570823000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56596100000000005</c:v>
+                  <c:v>0.77517499999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3545259999999999</c:v>
+                  <c:v>47.619047999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.175689999999999</c:v>
+                  <c:v>79.355238999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0617230000000006</c:v>
+                  <c:v>166.99282500000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.184652</c:v>
+                  <c:v>275.71351600000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.729590999999999</c:v>
+                  <c:v>350.44490100000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4055839999999993</c:v>
+                  <c:v>346.35548799999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.344847</c:v>
+                  <c:v>556.52173900000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.196976000000006</c:v>
+                  <c:v>786.406835</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56.229365000000001</c:v>
+                  <c:v>1069.0330160000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.924966999999995</c:v>
+                  <c:v>1297.4342730000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.309586</c:v>
+                  <c:v>1250.019074</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>172.44251</c:v>
+                  <c:v>1308.887557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210.45178100000001</c:v>
+                  <c:v>1327.0560599999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>285.917933</c:v>
+                  <c:v>1346.3269829999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>303.86901399999999</c:v>
+                  <c:v>1352.2318270000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,16 +1211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>527539</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410307</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:rowOff>164487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35168</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1509,7 +1514,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4.6432000000000001E-2</v>
+        <v>0.295072</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4.7840000000000001E-2</v>
+        <v>4.7572999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>6.0794000000000001E-2</v>
+        <v>9.5658999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>0.124516</v>
+        <v>6.1349689999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>0.38561699999999999</v>
+        <v>13.570823000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1576,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>0.56596100000000005</v>
+        <v>0.77517499999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1584,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="3">
-        <v>1.3545259999999999</v>
+        <v>47.619047999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1592,7 @@
         <v>128</v>
       </c>
       <c r="B9" s="3">
-        <v>10.175689999999999</v>
+        <v>79.355238999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1600,7 @@
         <v>256</v>
       </c>
       <c r="B10" s="3">
-        <v>8.0617230000000006</v>
+        <v>166.99282500000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1608,7 @@
         <v>512</v>
       </c>
       <c r="B11" s="3">
-        <v>19.184652</v>
+        <v>275.71351600000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1616,7 @@
         <v>1024</v>
       </c>
       <c r="B12" s="3">
-        <v>10.729590999999999</v>
+        <v>350.44490100000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1624,7 @@
         <v>2048</v>
       </c>
       <c r="B13" s="3">
-        <v>9.4055839999999993</v>
+        <v>346.35548799999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1632,7 @@
         <v>4096</v>
       </c>
       <c r="B14" s="3">
-        <v>15.344847</v>
+        <v>556.52173900000003</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1635,7 +1640,7 @@
         <v>8192</v>
       </c>
       <c r="B15" s="3">
-        <v>65.196976000000006</v>
+        <v>786.406835</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1648,7 @@
         <v>16384</v>
       </c>
       <c r="B16" s="3">
-        <v>56.229365000000001</v>
+        <v>1069.0330160000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1651,7 +1656,7 @@
         <v>32768</v>
       </c>
       <c r="B17" s="3">
-        <v>83.924966999999995</v>
+        <v>1297.4342730000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1664,7 @@
         <v>65536</v>
       </c>
       <c r="B18" s="3">
-        <v>120.309586</v>
+        <v>1250.019074</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1672,7 @@
         <v>131072</v>
       </c>
       <c r="B19" s="3">
-        <v>172.44251</v>
+        <v>1308.887557</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1680,7 @@
         <v>262144</v>
       </c>
       <c r="B20" s="3">
-        <v>210.45178100000001</v>
+        <v>1327.0560599999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1688,7 @@
         <v>524288</v>
       </c>
       <c r="B21" s="3">
-        <v>285.917933</v>
+        <v>1346.3269829999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,7 +1696,7 @@
         <v>1048576</v>
       </c>
       <c r="B22" s="3">
-        <v>303.86901399999999</v>
+        <v>1352.2318270000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.XLSX
+++ b/output.XLSX
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC496353-4245-4ADB-BE92-ABF3AFA931D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5C62FE-AD8B-4BF1-9E99-7A71DE2838CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
     <t>Size of Packet (B)</t>
   </si>
   <si>
-    <t>Throughput (MB/s)</t>
+    <t>Throughput TCP (MB/s)</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>'Ex1'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -283,7 +283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>'Ex1'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output.XLSX
+++ b/output.XLSX
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5C62FE-AD8B-4BF1-9E99-7A71DE2838CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CFF2F0-40DE-493D-A4B4-C5A491518F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1" sheetId="1" r:id="rId1"/>
+    <sheet name="warmup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Size of Packet (B)</t>
   </si>
   <si>
-    <t>Throughput TCP (MB/s)</t>
+    <t>warmup=10</t>
+  </si>
+  <si>
+    <t>warmup=100</t>
+  </si>
+  <si>
+    <t>warmup=1000</t>
+  </si>
+  <si>
+    <t>warmup=10000</t>
+  </si>
+  <si>
+    <t>Throughput TCP (Mbit/s)</t>
   </si>
 </sst>
 </file>
@@ -46,7 +59,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,11 +78,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -78,13 +118,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,7 +194,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 500)</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>00)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -288,67 +349,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.295072</c:v>
+                  <c:v>8.2815729999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7572999999999997E-2</c:v>
+                  <c:v>11.212334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5658999999999994E-2</c:v>
+                  <c:v>0.74653000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1349689999999999</c:v>
+                  <c:v>44.260027999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.570823000000001</c:v>
+                  <c:v>94.885099999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77517499999999995</c:v>
+                  <c:v>6.0117890000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.619047999999999</c:v>
+                  <c:v>300.46948400000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.355238999999997</c:v>
+                  <c:v>508.69349199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.99282500000001</c:v>
+                  <c:v>833.536834</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>275.71351600000003</c:v>
+                  <c:v>1120.963328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>350.44490100000002</c:v>
+                  <c:v>2520.6153850000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.35548799999998</c:v>
+                  <c:v>4187.0687449999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>556.52173900000003</c:v>
+                  <c:v>3792.5925929999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>786.406835</c:v>
+                  <c:v>5516.9627069999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1069.0330160000001</c:v>
+                  <c:v>7225.9771760000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1297.4342730000001</c:v>
+                  <c:v>8541.1182069999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1250.019074</c:v>
+                  <c:v>8877.0593119999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1308.887557</c:v>
+                  <c:v>9260.2575199999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1327.0560599999999</c:v>
+                  <c:v>9618.2867210000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1346.3269829999999</c:v>
+                  <c:v>9926.5714160000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1352.2318270000001</c:v>
+                  <c:v>10062.336864999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,7 +596,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Throughput (MB/s)</a:t>
+                  <a:t>Throughput (Mbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -664,7 +725,883 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warmup Comparison </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>warmup!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>warmup=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>warmup!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>warmup!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7.373272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.152284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77440600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.498197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0410300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.09945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.36292400000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>484.84848499999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>795.33980599999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400.8207930000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1499.5423760000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3011.7647059999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3096.5790969999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4370.232062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6416.9196119999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8304.3684859999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8756.6682810000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10376.084784000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9620.8459490000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8718.4623030000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9875.7939330000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCE5-4DB0-B394-D7F75577E3A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>warmup!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>warmup=100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>warmup!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8.0971659999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.256410000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77617199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.532494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9945719999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9630679999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>474.074074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947.27104499999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1595.015576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2220.0542009999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2944.6441410000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1441.999648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3379.1894400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4950.596767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6896.7113920000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9237.2528980000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10164.165794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10279.24987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9567.6484540000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9080.6831889999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10738.696574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DCE5-4DB0-B394-D7F75577E3A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>warmup!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>warmup=1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>warmup!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6.6115700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.384357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.767239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.315471000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0976240000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245.68138200000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>482.10922799999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>772.83018900000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1236.714976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1665.0406499999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023.2156090000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>759.608698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3275.4898039999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4629.883433</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6226.9941559999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8196.6105929999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8622.4488120000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8955.3758249999992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8968.9338989999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9285.9872340000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9535.5864849999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DCE5-4DB0-B394-D7F75577E3A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>warmup!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>warmup=10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>warmup!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.9312040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38212600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76459900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5307710000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.02604599999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.48902200000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>445.99303099999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>716.08391600000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1346.482577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1851.7179020000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2519.8400489999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2952.0720719999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3640.8888889999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5491.0766649999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7109.1826220000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8268.744283</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8787.7843150000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8966.0196670000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9180.35887</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9418.0159829999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9932.2599819999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DCE5-4DB0-B394-D7F75577E3A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2051301312"/>
+        <c:axId val="2051304192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2051301312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2051304192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2051304192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2051301312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1207,18 +2144,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>410307</xdr:colOff>
+      <xdr:colOff>388327</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>164487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>35168</xdr:colOff>
+      <xdr:colOff>13188</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>93050</xdr:rowOff>
     </xdr:to>
@@ -1228,6 +2668,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0187F8D-A41E-D8D5-CEF6-B5BB0215377B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70343</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>297465</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175621</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B1D830-4640-522A-53C8-810D27E6846B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +2995,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,175 +3009,175 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.295072</v>
+      <c r="B2" s="5">
+        <v>8.2815729999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>4.7572999999999997E-2</v>
+      <c r="B3" s="5">
+        <v>11.212334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>9.5658999999999994E-2</v>
+      <c r="B4" s="5">
+        <v>0.74653000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>6.1349689999999999</v>
+      <c r="B5" s="5">
+        <v>44.260027999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
-        <v>13.570823000000001</v>
+      <c r="B6" s="5">
+        <v>94.885099999999994</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.77517499999999995</v>
+      <c r="B7" s="5">
+        <v>6.0117890000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="3">
-        <v>47.619047999999999</v>
+      <c r="B8" s="5">
+        <v>300.46948400000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>128</v>
       </c>
-      <c r="B9" s="3">
-        <v>79.355238999999997</v>
+      <c r="B9" s="5">
+        <v>508.69349199999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>256</v>
       </c>
-      <c r="B10" s="3">
-        <v>166.99282500000001</v>
+      <c r="B10" s="5">
+        <v>833.536834</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>512</v>
       </c>
-      <c r="B11" s="3">
-        <v>275.71351600000003</v>
+      <c r="B11" s="5">
+        <v>1120.963328</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1024</v>
       </c>
-      <c r="B12" s="3">
-        <v>350.44490100000002</v>
+      <c r="B12" s="5">
+        <v>2520.6153850000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2048</v>
       </c>
-      <c r="B13" s="3">
-        <v>346.35548799999998</v>
+      <c r="B13" s="5">
+        <v>4187.0687449999996</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4096</v>
       </c>
-      <c r="B14" s="3">
-        <v>556.52173900000003</v>
+      <c r="B14" s="5">
+        <v>3792.5925929999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8192</v>
       </c>
-      <c r="B15" s="3">
-        <v>786.406835</v>
+      <c r="B15" s="5">
+        <v>5516.9627069999997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16384</v>
       </c>
-      <c r="B16" s="3">
-        <v>1069.0330160000001</v>
+      <c r="B16" s="5">
+        <v>7225.9771760000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>32768</v>
       </c>
-      <c r="B17" s="3">
-        <v>1297.4342730000001</v>
+      <c r="B17" s="5">
+        <v>8541.1182069999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>65536</v>
       </c>
-      <c r="B18" s="3">
-        <v>1250.019074</v>
+      <c r="B18" s="5">
+        <v>8877.0593119999994</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>131072</v>
       </c>
-      <c r="B19" s="3">
-        <v>1308.887557</v>
+      <c r="B19" s="5">
+        <v>9260.2575199999992</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>262144</v>
       </c>
-      <c r="B20" s="3">
-        <v>1327.0560599999999</v>
+      <c r="B20" s="5">
+        <v>9618.2867210000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>524288</v>
       </c>
-      <c r="B21" s="3">
-        <v>1346.3269829999999</v>
+      <c r="B21" s="5">
+        <v>9926.5714160000007</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1048576</v>
       </c>
-      <c r="B22" s="3">
-        <v>1352.2318270000001</v>
+      <c r="B22" s="5">
+        <v>10062.336864999999</v>
       </c>
     </row>
   </sheetData>
@@ -1704,4 +3185,401 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94600BAD-904A-4A9D-BD83-9C40A7D2AC5C}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.373272</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8.0971659999999996</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.6115700000000004</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3.9312040000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10.152284</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10.256410000000001</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.384357</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.38212600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.77440600000000004</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.77617199999999997</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.767239</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.76459900000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.498197</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.532494</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55.315471000000002</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.5307710000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.0410300000000001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.9945719999999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3.0976240000000002</v>
+      </c>
+      <c r="E6" s="10">
+        <v>101.02604599999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.09945</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.9630679999999998</v>
+      </c>
+      <c r="D7" s="7">
+        <v>245.68138200000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>255.48902200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>267.36292400000002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>474.074074</v>
+      </c>
+      <c r="D8" s="7">
+        <v>482.10922799999997</v>
+      </c>
+      <c r="E8" s="10">
+        <v>445.99303099999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>128</v>
+      </c>
+      <c r="B9" s="3">
+        <v>484.84848499999998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>947.27104499999996</v>
+      </c>
+      <c r="D9" s="7">
+        <v>772.83018900000002</v>
+      </c>
+      <c r="E9" s="10">
+        <v>716.08391600000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>256</v>
+      </c>
+      <c r="B10" s="3">
+        <v>795.33980599999995</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1595.015576</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1236.714976</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1346.482577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>512</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1400.8207930000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2220.0542009999999</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1665.0406499999999</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1851.7179020000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1024</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1499.5423760000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2944.6441410000002</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2023.2156090000001</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2519.8400489999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2048</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3011.7647059999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1441.999648</v>
+      </c>
+      <c r="D13" s="7">
+        <v>759.608698</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2952.0720719999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4096</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3096.5790969999998</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3379.1894400000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3275.4898039999998</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3640.8888889999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>8192</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4370.232062</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4950.596767</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4629.883433</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5491.0766649999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>16384</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6416.9196119999997</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6896.7113920000002</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6226.9941559999997</v>
+      </c>
+      <c r="E16" s="10">
+        <v>7109.1826220000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>32768</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8304.3684859999994</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9237.2528980000006</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8196.6105929999994</v>
+      </c>
+      <c r="E17" s="10">
+        <v>8268.744283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>65536</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8756.6682810000002</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10164.165794</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8622.4488120000005</v>
+      </c>
+      <c r="E18" s="10">
+        <v>8787.7843150000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>131072</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10376.084784000001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10279.24987</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8955.3758249999992</v>
+      </c>
+      <c r="E19" s="10">
+        <v>8966.0196670000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>262144</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9620.8459490000005</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9567.6484540000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8968.9338989999997</v>
+      </c>
+      <c r="E20" s="10">
+        <v>9180.35887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>524288</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8718.4623030000002</v>
+      </c>
+      <c r="C21" s="5">
+        <v>9080.6831889999994</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9285.9872340000002</v>
+      </c>
+      <c r="E21" s="10">
+        <v>9418.0159829999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1048576</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9875.7939330000008</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10738.696574</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9535.5864849999998</v>
+      </c>
+      <c r="E22" s="10">
+        <v>9932.2599819999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/output.XLSX
+++ b/output.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CFF2F0-40DE-493D-A4B4-C5A491518F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056441BF-5B75-4CBC-B5BD-CFAA84C25539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1344,7 +1344,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2995,7 +2994,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,7 +3015,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>8.2815729999999999</v>
       </c>
     </row>
@@ -3024,7 +3023,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>11.212334</v>
       </c>
     </row>
@@ -3032,7 +3031,7 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0.74653000000000003</v>
       </c>
     </row>
@@ -3040,7 +3039,7 @@
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>44.260027999999998</v>
       </c>
     </row>
@@ -3048,7 +3047,7 @@
       <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>94.885099999999994</v>
       </c>
     </row>
@@ -3056,7 +3055,7 @@
       <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>6.0117890000000003</v>
       </c>
     </row>
@@ -3064,7 +3063,7 @@
       <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>300.46948400000002</v>
       </c>
     </row>
@@ -3072,7 +3071,7 @@
       <c r="A9" s="1">
         <v>128</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>508.69349199999999</v>
       </c>
     </row>
@@ -3080,7 +3079,7 @@
       <c r="A10" s="1">
         <v>256</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>833.536834</v>
       </c>
     </row>
@@ -3088,7 +3087,7 @@
       <c r="A11" s="1">
         <v>512</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>1120.963328</v>
       </c>
     </row>
@@ -3096,7 +3095,7 @@
       <c r="A12" s="1">
         <v>1024</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>2520.6153850000001</v>
       </c>
     </row>
@@ -3104,7 +3103,7 @@
       <c r="A13" s="1">
         <v>2048</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>4187.0687449999996</v>
       </c>
     </row>
@@ -3112,7 +3111,7 @@
       <c r="A14" s="1">
         <v>4096</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>3792.5925929999999</v>
       </c>
     </row>
@@ -3120,7 +3119,7 @@
       <c r="A15" s="1">
         <v>8192</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>5516.9627069999997</v>
       </c>
     </row>
@@ -3128,7 +3127,7 @@
       <c r="A16" s="1">
         <v>16384</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>7225.9771760000003</v>
       </c>
     </row>
@@ -3136,7 +3135,7 @@
       <c r="A17" s="1">
         <v>32768</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>8541.1182069999995</v>
       </c>
     </row>
@@ -3144,7 +3143,7 @@
       <c r="A18" s="1">
         <v>65536</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>8877.0593119999994</v>
       </c>
     </row>
@@ -3152,7 +3151,7 @@
       <c r="A19" s="1">
         <v>131072</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>9260.2575199999992</v>
       </c>
     </row>
@@ -3160,7 +3159,7 @@
       <c r="A20" s="1">
         <v>262144</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>9618.2867210000004</v>
       </c>
     </row>
@@ -3168,7 +3167,7 @@
       <c r="A21" s="1">
         <v>524288</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>9926.5714160000007</v>
       </c>
     </row>
@@ -3176,7 +3175,7 @@
       <c r="A22" s="1">
         <v>1048576</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>10062.336864999999</v>
       </c>
     </row>
